--- a/Dados Testes/27-07-2022 OPC/Echo/Teste Echo Cliente - 4.xlsx
+++ b/Dados Testes/27-07-2022 OPC/Echo/Teste Echo Cliente - 4.xlsx
@@ -385,16 +385,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>184.7300722</v>
+        <v>62.27219999999999</v>
       </c>
       <c r="B2">
-        <v>101.1235563505684</v>
+        <v>30.01922417118737</v>
       </c>
       <c r="C2">
-        <v>93.10609999999986</v>
+        <v>60.50599999999999</v>
       </c>
       <c r="D2">
-        <v>67.21998200000111</v>
+        <v>42.37860000000001</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -402,16 +402,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>147.9330582</v>
+        <v>45.45938</v>
       </c>
       <c r="B3">
-        <v>82.25859115023555</v>
+        <v>20.63293912741469</v>
       </c>
       <c r="C3">
-        <v>90.72233999999985</v>
+        <v>63.008</v>
       </c>
       <c r="D3">
-        <v>63.90704000000053</v>
+        <v>42.39220000000001</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -419,16 +419,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>126.7081736</v>
+        <v>55.89218</v>
       </c>
       <c r="B4">
-        <v>72.89537940560193</v>
+        <v>22.99407647172636</v>
       </c>
       <c r="C4">
-        <v>88.05917999999974</v>
+        <v>62.23399999999999</v>
       </c>
       <c r="D4">
-        <v>60.56078799999943</v>
+        <v>42.40260000000002</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -436,16 +436,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>125.6056656</v>
+        <v>46.90843999999999</v>
       </c>
       <c r="B5">
-        <v>71.95296678474473</v>
+        <v>18.79650588929762</v>
       </c>
       <c r="C5">
-        <v>87.79044000000022</v>
+        <v>61.59399999999999</v>
       </c>
       <c r="D5">
-        <v>60.45993599999943</v>
+        <v>42.3974</v>
       </c>
       <c r="E5">
         <v>16</v>
@@ -453,16 +453,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>122.9314098</v>
+        <v>57.17183999999998</v>
       </c>
       <c r="B6">
-        <v>70.14579691088193</v>
+        <v>23.99100306811701</v>
       </c>
       <c r="C6">
-        <v>87.59612000000001</v>
+        <v>61.846</v>
       </c>
       <c r="D6">
-        <v>59.5245479999987</v>
+        <v>42.41160000000003</v>
       </c>
       <c r="E6">
         <v>32</v>
@@ -470,16 +470,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>135.3154884</v>
+        <v>58.39573999999997</v>
       </c>
       <c r="B7">
-        <v>69.79697279631721</v>
+        <v>26.01158583078702</v>
       </c>
       <c r="C7">
-        <v>88.66078000000012</v>
+        <v>60.532</v>
       </c>
       <c r="D7">
-        <v>57.36873200000218</v>
+        <v>42.41460000000001</v>
       </c>
       <c r="E7">
         <v>64</v>
@@ -487,16 +487,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>127.556789</v>
+        <v>55.18067999999998</v>
       </c>
       <c r="B8">
-        <v>61.62383727091384</v>
+        <v>23.09409950566594</v>
       </c>
       <c r="C8">
-        <v>87.57342000000017</v>
+        <v>61.77600000000001</v>
       </c>
       <c r="D8">
-        <v>56.66849600000215</v>
+        <v>42.4066</v>
       </c>
       <c r="E8">
         <v>128</v>
@@ -504,16 +504,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>125.4318072</v>
+        <v>52.41394000000001</v>
       </c>
       <c r="B9">
-        <v>58.95616698435909</v>
+        <v>23.05058956938846</v>
       </c>
       <c r="C9">
-        <v>84.30286000000017</v>
+        <v>64.63799999999999</v>
       </c>
       <c r="D9">
-        <v>54.60523999999977</v>
+        <v>42.38240000000002</v>
       </c>
       <c r="E9">
         <v>256</v>
@@ -521,16 +521,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>125.1994492</v>
+        <v>50.39974</v>
       </c>
       <c r="B10">
-        <v>59.40594000600125</v>
+        <v>23.55724787135374</v>
       </c>
       <c r="C10">
-        <v>81.99904000000002</v>
+        <v>61.71800000000001</v>
       </c>
       <c r="D10">
-        <v>53.41819199999946</v>
+        <v>42.43380000000001</v>
       </c>
       <c r="E10">
         <v>512</v>
@@ -538,16 +538,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>125.3069176</v>
+        <v>53.48248</v>
       </c>
       <c r="B11">
-        <v>58.54693943550253</v>
+        <v>24.33241851788679</v>
       </c>
       <c r="C11">
-        <v>79.70738000000009</v>
+        <v>61.35799999999999</v>
       </c>
       <c r="D11">
-        <v>52.52129600000139</v>
+        <v>42.42540000000002</v>
       </c>
       <c r="E11">
         <v>1024</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>131.9093596</v>
+        <v>52.81245999999999</v>
       </c>
       <c r="B12">
-        <v>60.15333789570034</v>
+        <v>21.55684736988226</v>
       </c>
       <c r="C12">
-        <v>78.40241999999996</v>
+        <v>63.41200000000001</v>
       </c>
       <c r="D12">
-        <v>52.18952000000137</v>
+        <v>42.39540000000001</v>
       </c>
       <c r="E12">
         <v>2048</v>
@@ -572,16 +572,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>32.6275592</v>
+        <v>51.13583999999999</v>
       </c>
       <c r="B13">
-        <v>22.76290597013696</v>
+        <v>22.37580502628677</v>
       </c>
       <c r="C13">
-        <v>37.69948000000003</v>
+        <v>64.98399999999998</v>
       </c>
       <c r="D13">
-        <v>34.58606400000276</v>
+        <v>42.40500000000002</v>
       </c>
       <c r="E13">
         <v>4096</v>
@@ -589,16 +589,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>28.7800146</v>
+        <v>52.64248</v>
       </c>
       <c r="B14">
-        <v>9.797868432102305</v>
+        <v>22.81155535621365</v>
       </c>
       <c r="C14">
-        <v>30.60742000000018</v>
+        <v>63.30400000000002</v>
       </c>
       <c r="D14">
-        <v>31.82401999999779</v>
+        <v>42.45620000000001</v>
       </c>
       <c r="E14">
         <v>8192</v>
@@ -606,16 +606,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>29.6814406</v>
+        <v>66.12477999999999</v>
       </c>
       <c r="B15">
-        <v>9.508454243444195</v>
+        <v>26.11089240090426</v>
       </c>
       <c r="C15">
-        <v>27.05718</v>
+        <v>65.62400000000001</v>
       </c>
       <c r="D15">
-        <v>30.09959800000012</v>
+        <v>42.57599999999996</v>
       </c>
       <c r="E15">
         <v>16384</v>
@@ -623,16 +623,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>34.0392718</v>
+        <v>96.18530000000001</v>
       </c>
       <c r="B16">
-        <v>9.569101953429326</v>
+        <v>47.75066867353797</v>
       </c>
       <c r="C16">
-        <v>24.77260000000004</v>
+        <v>62.86200000000002</v>
       </c>
       <c r="D16">
-        <v>28.50545400000032</v>
+        <v>42.83860000000001</v>
       </c>
       <c r="E16">
         <v>32768</v>
